--- a/medicine/Psychotrope/Famille_Hatt/Famille_Hatt.xlsx
+++ b/medicine/Psychotrope/Famille_Hatt/Famille_Hatt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Hatt est une famille de l'industrie brassicole strasbourgeoise. Elle est à l'origine, entre autres, des Brasseries Kronenbourg.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Liens de filiation entre les personnalités notoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jérôme Hatt (1633-1675), maître brasseur au Canon (1669), fondateur de la dynastie de brasseurs. Il épouse Marguerite Hamm.
@@ -547,18 +563,18 @@
 Jean Hatt (Strasbourg, 14 août 1720-Strasbourg, 29 octobre 1753), fondateur de la Brasserie de l'Espérance en 1745 à Strasbourg puis Schiltigheim. Il épouse Marguerite Barbe Heyl le 16 février 1746 à Strasbourg.
 Jean-Louis Hatt (Strasbourg, 19 décembre 1752 - 11 novembre 1804), brasseur à l'Espérance. Il épouse Anne Barbe Kellervitter le 2 août 1780 à Strasbourg.
 Jean-Louis Hatt (Strasbourg, 22 avril 1784 - 1853), brasseur au Géant (1805). Il épouse Catherine Kreiss le 29 septembre 1810 à Strasbourg.
-Louis-Guillaume Hatt (Strasbourg, 10 juin 1814 - 1882), brasseur au Géant, commandant de la Garde nationale. Il épouse Fanny Ott (1823-1913) le 6 mai 1843 à Strasbourg[1].
+Louis-Guillaume Hatt (Strasbourg, 10 juin 1814 - 1882), brasseur au Géant, commandant de la Garde nationale. Il épouse Fanny Ott (1823-1913) le 6 mai 1843 à Strasbourg.
 Jean-Louis Hatt (Strasbourg, 10 août 1844 - 1929), malteur et négociant en vins.
 Fanny Hatt (Strasbourg 13 septembre 1845 - 1921) épouse Gustave Ehrhardt (Schiltigheim, 11 juin 1842-1882), cofondateur de la brasserie Ehrhardt Frères à Schiltigheim qui deviendra Adelshoffen.
 Philippe Jacques Hatt (Strasbourg, 11 janvier 1787 - 1862), brasseur à l'Espérance,  fondateur du Syndicat des brasseurs de Strasbourg. Il épouse Marie Catherine Rothenbach (1791-1838) le 3 septembre 1812 à Strasbourg.
 Philippe Jacques Hatt (Strasbourg, 16 novembre 1813)
 Philippe-Eugène Hatt (1840-1915), ingénieur hydrographe français.
-Frédéric Guillaume Hatt (Strasbourg, 28 juin 1849 - 1916), dirige la brasserie de Kronenbourg. Il épouse Eugénie Boersch (1854-1883) le 25 juin 1874 à Strasbourg[2].
+Frédéric Guillaume Hatt (Strasbourg, 28 juin 1849 - 1916), dirige la brasserie de Kronenbourg. Il épouse Eugénie Boersch (1854-1883) le 25 juin 1874 à Strasbourg.
 Maurice Jérôme Hatt (Strasbourg, 29 septembre 1869 - 1958), administrateur délégué et président d'honneur de la brasserie, absorbe la brasserie du Tigre et crée la marque Tigre Bock. Il épouse Hélène Nessmann le 22 avril 1897 à Strasbourg, puis veuf épouse en secondes noces Valérie Fischer le 21 février 1911 à Strasbourg.
-Jérôme Maurice Hatt (Strasbourg, 9 septembre 1912 - Perthuis, 26 janvier 1998[3]). C'est le dernier dirigeant familial des Brasseries Kronenbourg.
-Louis Eugène Hatt (Strasbourg, 9 octobre 1855 - 1938), brasseur à La Hache. Il épouse Lucie Ansen (1839-1920) le 7 août 1882 à Strasbourg[4].
+Jérôme Maurice Hatt (Strasbourg, 9 septembre 1912 - Perthuis, 26 janvier 1998). C'est le dernier dirigeant familial des Brasseries Kronenbourg.
+Louis Eugène Hatt (Strasbourg, 9 octobre 1855 - 1938), brasseur à La Hache. Il épouse Lucie Ansen (1839-1920) le 7 août 1882 à Strasbourg.
 Jacques Hatt (Strasbourg, 16 juin 1883 - 1964), docteur en droit, président du Conseil d'administration des Brasseries Kronenbourg de 1928 à 1963. Il épouse Yvonne Schmid le 22 avril 1912 à Paris 15ème. Patron brasseur, il donne une envergure régionale à l'entreprise familiale. À eux une aventure avec sa servante dont il laissera une progéniture jusqu'à ce jour inconnu et effacé des livrets familiaux.
-Jean-Jacques Hatt (1913-1997[5]), archéologue, préhistorien et historien. Il épouse Suzanne Trocmé (1914-2009[6]), artiste peintre, ancienne élève des Beaux-Arts de Paris.
+Jean-Jacques Hatt (1913-1997), archéologue, préhistorien et historien. Il épouse Suzanne Trocmé (1914-2009), artiste peintre, ancienne élève des Beaux-Arts de Paris.
 Est également mentionné Matterne Hatt (?-1546), ecclésiastique alsacien, premier vicaire du chapitre de Saint-Thomas de Strasbourg.
 </t>
         </is>
@@ -588,9 +604,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2008, une rue de l'écoquartier de la brasserie à Strasbourg, à l'emplacement de l'ancien site historique des Brasseries Kronenbourg, a été nommée « rue Hatt »[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, une rue de l'écoquartier de la brasserie à Strasbourg, à l'emplacement de l'ancien site historique des Brasseries Kronenbourg, a été nommée « rue Hatt ».
 </t>
         </is>
       </c>
